--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/75.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/75.xlsx
@@ -479,13 +479,13 @@
         <v>-21.54871473538681</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.70934016076436</v>
+        <v>-12.62370431648348</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.464122788967207</v>
+        <v>-6.415662952902346</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.515357409242391</v>
+        <v>-3.478592077603191</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.15475146231089</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.01899029968729</v>
+        <v>-12.92671029507427</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.386226242556651</v>
+        <v>-6.338714873823972</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.914784381262476</v>
+        <v>-3.873922061868801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.76587808047694</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.45003936812258</v>
+        <v>-13.36409062740221</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.32450253086185</v>
+        <v>-6.277040052197839</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.289199194151423</v>
+        <v>-4.236705927421357</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-20.42768394975658</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.66851930699127</v>
+        <v>-13.58745468413096</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.986955718756308</v>
+        <v>-5.950376169378051</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.518415392099864</v>
+        <v>-4.474903230984321</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.11260026678056</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.02651194581425</v>
+        <v>-13.9572444965238</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.805461116835825</v>
+        <v>-5.774376811175979</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.577782602484812</v>
+        <v>-4.529645440873168</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.8246045251261</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.83860043144316</v>
+        <v>-14.7684920729716</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.637504174929829</v>
+        <v>-5.606634985572128</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.561981332290943</v>
+        <v>-4.512489915777163</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-19.55536528712167</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.25048459296014</v>
+        <v>-15.18383765135036</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.347630068783574</v>
+        <v>-5.320212518273915</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.597910643755901</v>
+        <v>-4.548399671214653</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.29080924503879</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.77949958099468</v>
+        <v>-15.71769764519</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.097894709014692</v>
+        <v>-5.075190161124739</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.284549748620987</v>
+        <v>-4.240045119111461</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-19.01835392947702</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.43806836199559</v>
+        <v>-16.37831980907502</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.955751723366006</v>
+        <v>-4.937217498333532</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.412627061513558</v>
+        <v>-4.366685063985158</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-18.73831120494584</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.0040882430058</v>
+        <v>-16.93916712082003</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.010112590719234</v>
+        <v>-4.992111267435253</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.070455248911915</v>
+        <v>-4.022821655007562</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-18.44069125995322</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.85933199224896</v>
+        <v>-17.79892342340136</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.904930496984425</v>
+        <v>-4.883981102559695</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.806575992277047</v>
+        <v>-3.761978471637049</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-18.11563348188002</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.6201396848508</v>
+        <v>-18.55694927109592</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.795323852035059</v>
+        <v>-4.771988622259275</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.351350784884862</v>
+        <v>-3.313485426700606</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-17.78056816108369</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.40172565663703</v>
+        <v>-19.34356603094821</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.662968658133938</v>
+        <v>-4.649724338531465</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.919524364357733</v>
+        <v>-2.881439000864465</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-17.44885235368191</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.21535906843588</v>
+        <v>-20.156026081099</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.456593900267724</v>
+        <v>-4.44023039428416</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.698086576334554</v>
+        <v>-2.660499891541712</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-17.13280162181747</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.8747980926591</v>
+        <v>-20.81069343462011</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.160794317798769</v>
+        <v>-4.149896721492415</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.103382892036153</v>
+        <v>-2.060623637978115</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.86423408020906</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.99011256218781</v>
+        <v>-21.92512299390591</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.93159278687093</v>
+        <v>-3.920636522482173</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.899345079452324</v>
+        <v>-1.85101724657287</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-16.66371364171552</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.69609493178406</v>
+        <v>-22.62622613464898</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.500328602133495</v>
+        <v>-3.486165149240042</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.550436215388072</v>
+        <v>-1.491597017744751</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-16.5277737027092</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.58562039717803</v>
+        <v>-23.51612316456483</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.306147027393367</v>
+        <v>-3.299033522402006</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.21667838360439</v>
+        <v>-1.145298883347431</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-16.44912858519486</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.25411875112565</v>
+        <v>-24.17936583613052</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.988532696284237</v>
+        <v>-2.978446675117792</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.559270650796588</v>
+        <v>-1.477062000329413</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-16.40739559398005</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.92344334723377</v>
+        <v>-24.84943845028928</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.746741972674092</v>
+        <v>-2.741525402347093</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.488453386329325</v>
+        <v>-1.41221910225352</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-16.36447640139609</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.50978194078288</v>
+        <v>-25.43814332316198</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.527988249420849</v>
+        <v>-2.5171786552381</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.793234074412802</v>
+        <v>-1.71304947278853</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-16.28127343579239</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.94312884244562</v>
+        <v>-25.87818327522552</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.259259097974002</v>
+        <v>-2.25698082077402</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.893747166589707</v>
+        <v>-1.809494911252161</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-16.13231076116114</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.36603282544063</v>
+        <v>-26.28905052331419</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.088207414721249</v>
+        <v>-2.08692160591525</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.324708232901393</v>
+        <v>-2.233635812984501</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-15.89428777576235</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.72820556513483</v>
+        <v>-26.65463090079462</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.878649913384673</v>
+        <v>-1.874890267104016</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.31258838487831</v>
+        <v>-2.224840489630921</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-15.55260372965872</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.82892155109671</v>
+        <v>-26.75872274599811</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.907191935473723</v>
+        <v>-1.903222061897788</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.805033601548319</v>
+        <v>-2.714132296871769</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-15.12363359587113</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.97710246022603</v>
+        <v>-26.90723855209782</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.757700772504065</v>
+        <v>-1.756639858013944</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.938699049289773</v>
+        <v>-2.847352844988334</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-14.62834336560329</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.87228215299938</v>
+        <v>-26.8005579777583</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.65679167077094</v>
+        <v>-1.660077083385507</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.000696545369122</v>
+        <v>-2.907277402156111</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-14.08901264381448</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.75436419637625</v>
+        <v>-26.68115620755107</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.834384845211626</v>
+        <v>-1.832942588185886</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.084435454985641</v>
+        <v>-3.00033475886097</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.54301721575175</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.72038315414776</v>
+        <v>-26.65306641859721</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.941840327139549</v>
+        <v>-1.937831341508679</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.419875105131542</v>
+        <v>-3.338839816312427</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.02216883080694</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.37351789495388</v>
+        <v>-26.3128697647698</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.000762637899608</v>
+        <v>-2.000571966631798</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.531672025157286</v>
+        <v>-3.45441104963943</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.54321212763993</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.10223179291564</v>
+        <v>-26.04797848371348</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.004605397297003</v>
+        <v>-1.994641601302231</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.606679168509496</v>
+        <v>-3.528890180250012</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.12154853866636</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.67996338081332</v>
+        <v>-25.62514783582147</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.925657714410061</v>
+        <v>-1.92420079036372</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.600905251399669</v>
+        <v>-3.523135819167653</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.76533829056064</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.20476658036979</v>
+        <v>-25.15208264237192</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.169736493233922</v>
+        <v>-2.158462443398817</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.16245422656787</v>
+        <v>-3.091891190457686</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.46715136071093</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.73820376605323</v>
+        <v>-24.68423401924936</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.183689718832098</v>
+        <v>-2.174713502224442</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.256552941735382</v>
+        <v>-3.185364112746233</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.21503001336147</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.35971641044414</v>
+        <v>-24.30872406882222</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.306428236225998</v>
+        <v>-2.29485595697201</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.127170264009345</v>
+        <v>-3.053976942204761</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.00559268784856</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.93405502757619</v>
+        <v>-23.88863615378255</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.272239411205661</v>
+        <v>-2.261454262057247</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.692532664533739</v>
+        <v>-2.623411885449295</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.8303890490355</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.63574738458451</v>
+        <v>-23.59110097387584</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.405880413912782</v>
+        <v>-2.395579276444192</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.384134111368744</v>
+        <v>-2.322909078374368</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.68052209847643</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.14843562512476</v>
+        <v>-23.1085462180976</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.224151139662686</v>
+        <v>-2.212598416436166</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.201935492459425</v>
+        <v>-2.145863472702777</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.56574282494672</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.46781742315407</v>
+        <v>-22.42667643036898</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.440959038182896</v>
+        <v>-2.432452166234464</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.787245041000832</v>
+        <v>-1.723277275154116</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.49222495220499</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.91693390740382</v>
+        <v>-21.88467624009592</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.41470996031443</v>
+        <v>-2.406491539771146</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.561661375154509</v>
+        <v>-1.496833144099217</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.46306186746062</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.24275941648372</v>
+        <v>-21.20903504711574</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.565115367568201</v>
+        <v>-2.557816080315897</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.267328494745628</v>
+        <v>-1.19891173265002</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.49189009886319</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.75146311642744</v>
+        <v>-20.71964545973755</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.418611387794228</v>
+        <v>-2.418254490292943</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.165270476398779</v>
+        <v>-1.095558127483439</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.58533150093094</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.95049223241389</v>
+        <v>-19.91428913656439</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.43321974031257</v>
+        <v>-2.42364706486715</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.104754349400106</v>
+        <v>-1.037222497547409</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.73873426848719</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.55632583178261</v>
+        <v>-19.52438594992105</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.399881602487077</v>
+        <v>-2.393433002429616</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.8719496204113496</v>
+        <v>-0.8087934297045423</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.95271471251545</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.89871529612761</v>
+        <v>-18.86986526660595</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.453152221308982</v>
+        <v>-2.447720534679839</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.8487072817660359</v>
+        <v>-0.7838203826283408</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.22430763531708</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.42833905645486</v>
+        <v>-18.40243709807395</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.443418208636954</v>
+        <v>-2.437795850740002</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.06506539165449</v>
+        <v>-1.001474079336527</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.53882198802757</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.85224293229194</v>
+        <v>-17.82476671369988</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.567271419596511</v>
+        <v>-2.560901043648921</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.196036996612275</v>
+        <v>-1.124085482551887</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.88460623493686</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.3389363233208</v>
+        <v>-17.31648600378793</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.555073347463558</v>
+        <v>-2.551817268890193</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.333657650909063</v>
+        <v>-1.257174027483046</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.25670451074539</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.90423516675593</v>
+        <v>-16.88679119025478</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.747866444253482</v>
+        <v>-2.744561475611448</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.637152530186543</v>
+        <v>-1.561446258852365</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.64257028199992</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.44796371189422</v>
+        <v>-16.43127753145744</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.587321236757729</v>
+        <v>-2.580061061560361</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.792471389341564</v>
+        <v>-1.712951692651192</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.02941351785297</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.96422092744732</v>
+        <v>-15.94910411821482</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.589447954744837</v>
+        <v>-2.583106912838448</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.07844406800802</v>
+        <v>-1.987894771825888</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.41798694424558</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.64246071851505</v>
+        <v>-15.62112020354097</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.648096481120349</v>
+        <v>-2.637057103614855</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.24182978849345</v>
+        <v>-2.160867834777339</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.80255225969986</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.083598343558</v>
+        <v>-15.06414009622768</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.518987587778859</v>
+        <v>-2.51007981726734</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.331865738954556</v>
+        <v>-2.249045962629017</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-14.17118884290698</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.52173411838467</v>
+        <v>-14.5012638466329</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.592757812393738</v>
+        <v>-2.58274023732343</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.552570175947698</v>
+        <v>-2.476678122352577</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.52568553290191</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.24464965420226</v>
+        <v>-14.22618876427279</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.472850029975783</v>
+        <v>-2.471926007677935</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.723690305296588</v>
+        <v>-2.63742866813674</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.86199680213448</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.97402356809105</v>
+        <v>-13.95238482369809</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.631033847154816</v>
+        <v>-2.621974517430422</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.811091081056426</v>
+        <v>-2.729767340832163</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-15.16739036812462</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.44068669798617</v>
+        <v>-13.41283402586535</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.566557624593941</v>
+        <v>-2.566107835962185</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.159863052928405</v>
+        <v>-3.076133921325619</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-15.43729994390142</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.06509852344916</v>
+        <v>-13.03846810304508</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.774384417499629</v>
+        <v>-2.776085791889315</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.139627453506244</v>
+        <v>-3.057135240640788</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-15.6659817984857</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.52718065390998</v>
+        <v>-12.4974897152072</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.783688197567368</v>
+        <v>-2.776770252850683</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.962161393244098</v>
+        <v>-2.885609323721944</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.8409720514917</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.30171432422846</v>
+        <v>-12.27437499782867</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.815016953570559</v>
+        <v>-2.815344517030642</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.194961233225987</v>
+        <v>-3.119406521104684</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.95339265954669</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.95615442986804</v>
+        <v>-11.92862932120731</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.721206689808195</v>
+        <v>-2.720590674942964</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.274808493376442</v>
+        <v>-3.210923840646465</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.00596762173468</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.78293202756638</v>
+        <v>-11.75621849404556</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.867608000437963</v>
+        <v>-2.868791140099757</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.376245607851193</v>
+        <v>-3.312341399093748</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.99751089343961</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.76057459916398</v>
+        <v>-11.7261706578415</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.922795109951699</v>
+        <v>-2.921470189090765</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.335749963972537</v>
+        <v>-3.275571178447681</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.9271093999307</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.50344706101232</v>
+        <v>-11.46653017016025</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.117734480756199</v>
+        <v>-3.11388194334507</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.329501813196619</v>
+        <v>-3.271342187507799</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.81051130777091</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.45142313894148</v>
+        <v>-11.42185442541038</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.936758113563608</v>
+        <v>-2.938923943605651</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.604454670385049</v>
+        <v>-3.551384500844688</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.65997947898722</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.34860243552339</v>
+        <v>-11.32308670868496</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.24156324668142</v>
+        <v>-3.244565096897706</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.691703886932014</v>
+        <v>-3.641630678601071</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.48168969803163</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.35798932870787</v>
+        <v>-11.32845483822484</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.337348669218018</v>
+        <v>-3.339406941108989</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.5988763135499</v>
+        <v>-3.54277495975205</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.29433954908215</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.32485652917079</v>
+        <v>-11.28723562132988</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.183540513184874</v>
+        <v>-3.189402432418305</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.612115744145505</v>
+        <v>-3.555994834320189</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.11095247538877</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.22832797759042</v>
+        <v>-11.20378027411164</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.21148607643616</v>
+        <v>-3.215548841142566</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.578508710942332</v>
+        <v>-3.515411188317927</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.93251509889063</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.28378398248183</v>
+        <v>-11.25175120948981</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.294134737521357</v>
+        <v>-3.301922925460353</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.66144093442581</v>
+        <v>-3.594647322610018</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.76346936133837</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.43439472802402</v>
+        <v>-11.4125115332877</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.368535644022069</v>
+        <v>-3.376939846826295</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.751017318241426</v>
+        <v>-3.687440672944064</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.60964430039387</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.3678553445653</v>
+        <v>-11.34727262565559</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.563005670167344</v>
+        <v>-3.573443699828208</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.595947798436617</v>
+        <v>-3.528039493055169</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.46687123479695</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.53292288341295</v>
+        <v>-11.51755673483024</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.649291752361526</v>
+        <v>-3.649482423629336</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.326744413323679</v>
+        <v>-3.25612759813796</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.32830648930112</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.57910444227783</v>
+        <v>-11.56687703610368</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.70673269404091</v>
+        <v>-3.707915833702704</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.311158259431955</v>
+        <v>-3.239578309893453</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.19866772179925</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.9342761241386</v>
+        <v>-11.91783439404517</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.809651177596337</v>
+        <v>-3.810262303454701</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.124192858827394</v>
+        <v>-3.053507597545537</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.07451731752527</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.33156660015784</v>
+        <v>-12.32084989710557</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.847262307423513</v>
+        <v>-3.853148671691279</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.063134052066493</v>
+        <v>-2.979204471182164</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.94822029285679</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.67831941219379</v>
+        <v>-12.67045788915179</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.989591075333141</v>
+        <v>-3.999026858586287</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.766958016068785</v>
+        <v>-2.68368845111149</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.82705717109022</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.32377587677763</v>
+        <v>-13.31283916841634</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.223838061347637</v>
+        <v>-4.231572470211097</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.581576653689104</v>
+        <v>-2.499886237949822</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.71261053729084</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.87074329802748</v>
+        <v>-13.86189908460523</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.166944688437348</v>
+        <v>-4.181073918282732</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.254638986484768</v>
+        <v>-2.17341791540471</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.59775596302526</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.5013371817359</v>
+        <v>-14.49294764595227</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.259131801919897</v>
+        <v>-4.274126385980725</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.11869526154333</v>
+        <v>-2.033597208017809</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.48932551059772</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.06606636493325</v>
+        <v>-15.05678702989984</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.503601701293111</v>
+        <v>-4.520224324640622</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.842378371439031</v>
+        <v>-1.768657036892821</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.39302067760489</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.68824626782371</v>
+        <v>-15.67857092323408</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.641818814427664</v>
+        <v>-4.660612156824085</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.759891047580442</v>
+        <v>-1.685314136832522</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.30757425315625</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.63881098395111</v>
+        <v>-16.62546399520444</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.609883821572976</v>
+        <v>-4.631454119869804</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.322608495389836</v>
+        <v>-1.249151167214439</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.23822377309904</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.50585679577101</v>
+        <v>-17.49599077991358</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.679473945316643</v>
+        <v>-4.704975005134471</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.421019314613967</v>
+        <v>-1.343259660395684</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.19365839755188</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.80318899095496</v>
+        <v>-18.79605592993613</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.7993963947552</v>
+        <v>-4.823968543268314</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.165505148728391</v>
+        <v>-1.090581118492919</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.17404411881657</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.74543261739488</v>
+        <v>-19.73796221490223</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.766292929259318</v>
+        <v>-4.796096315120032</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.333774987073869</v>
+        <v>-1.252945036543164</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.17873525015384</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.10420007286848</v>
+        <v>-21.0959816523252</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.792101996509762</v>
+        <v>-4.823132523094071</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.065456512203843</v>
+        <v>-0.9896329047048593</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.21938309650753</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.41844334280509</v>
+        <v>-22.40865066205066</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.983663063569224</v>
+        <v>-5.010709049556997</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.136175996533768</v>
+        <v>-1.053850009901787</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.29851008400789</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.99328534576887</v>
+        <v>-23.98101882753978</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.970628971262029</v>
+        <v>-5.000329687978537</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.334322555842964</v>
+        <v>-1.258728731666725</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.41392723090107</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.57941606558835</v>
+        <v>-25.5705718521661</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.140815300299338</v>
+        <v>-5.177316625567725</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.634228904080127</v>
+        <v>-1.556425248800043</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.57735457642239</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.2089073873105</v>
+        <v>-27.20487884565216</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.087197561989882</v>
+        <v>-5.121498834168157</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.098136987667953</v>
+        <v>-2.01871507111492</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.7928761773597</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.23920438098921</v>
+        <v>-29.22439557918932</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.173116968669045</v>
+        <v>-5.214370408612074</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.413976609284393</v>
+        <v>-2.339629481859217</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.05293497316122</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.27888582334896</v>
+        <v>-31.26881935820998</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.392951162439876</v>
+        <v>-5.431315199324557</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.703312924675286</v>
+        <v>-2.622507419178916</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.36143060509333</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.53156173887272</v>
+        <v>-33.52261974531314</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.559343622148459</v>
+        <v>-5.591728403634904</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.294330297796034</v>
+        <v>-3.217274660566587</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.71550170820382</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.69878759237655</v>
+        <v>-35.6866775223672</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.564022401720097</v>
+        <v>-5.593405332990256</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.809010717696771</v>
+        <v>-3.726308277536038</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.09532068535142</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.74690990509202</v>
+        <v>-37.73897749145046</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.482395543070084</v>
+        <v>-5.52227517208351</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.243824321419585</v>
+        <v>-4.157709354465745</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.49156916437483</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.2012989104344</v>
+        <v>-40.18855326953236</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.620954886685321</v>
+        <v>-5.662007877346806</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.720463378888858</v>
+        <v>-4.633131049225156</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.88261472140005</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.29345161899332</v>
+        <v>-42.28209690054491</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.640242018775301</v>
+        <v>-5.682199475707165</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.974936186311781</v>
+        <v>-4.883492201873003</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.25544302824218</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.83739500762041</v>
+        <v>-44.82056949048792</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.478278999288142</v>
+        <v>-5.521629823177078</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.57767739789939</v>
+        <v>-5.482273317898412</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.56485690611438</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.95240260103043</v>
+        <v>-46.93896883241187</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.455853124789604</v>
+        <v>-5.502504028313706</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.061938417074183</v>
+        <v>-5.963547153877519</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.8287661341322</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.56653012773552</v>
+        <v>-49.55369281795472</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.385788767379846</v>
+        <v>-5.42776089133231</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.446453918150176</v>
+        <v>-6.345847934842801</v>
       </c>
     </row>
   </sheetData>
